--- a/PCA.xlsx
+++ b/PCA.xlsx
@@ -510,7 +510,7 @@
         <v>3.871</v>
       </c>
       <c r="G2" t="n">
-        <v>3.6055</v>
+        <v>3.606</v>
       </c>
       <c r="H2" t="n">
         <v>1.643</v>
@@ -537,7 +537,7 @@
         <v>2.332</v>
       </c>
       <c r="P2" t="n">
-        <v>1.245627823333333</v>
+        <v>1.246</v>
       </c>
       <c r="Q2" t="n">
         <v>1.692</v>
@@ -549,7 +549,7 @@
         <v>3.192</v>
       </c>
       <c r="T2" t="n">
-        <v>1.05629852</v>
+        <v>1.056</v>
       </c>
       <c r="U2" t="n">
         <v>2.759</v>
@@ -561,10 +561,10 @@
         <v>2.397</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.7402504887904304</v>
+        <v>-2.188727264235981</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.9284167022947694</v>
+        <v>-0.3369197705667187</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         <v>4.635</v>
       </c>
       <c r="P3" t="n">
-        <v>4.89012001</v>
+        <v>4.89</v>
       </c>
       <c r="Q3" t="n">
         <v>4.158</v>
@@ -628,7 +628,7 @@
         <v>3.339</v>
       </c>
       <c r="T3" t="n">
-        <v>2.72664574</v>
+        <v>2.727</v>
       </c>
       <c r="U3" t="n">
         <v>3.554</v>
@@ -640,10 +640,10 @@
         <v>1.512</v>
       </c>
       <c r="X3" t="n">
-        <v>-3.225792736741067</v>
+        <v>1.482470050864589</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6428958696324604</v>
+        <v>2.987424180379708</v>
       </c>
     </row>
     <row r="4">
@@ -695,7 +695,7 @@
         <v>2.468</v>
       </c>
       <c r="P4" t="n">
-        <v>1.783900123333333</v>
+        <v>1.784</v>
       </c>
       <c r="Q4" t="n">
         <v>3.451</v>
@@ -707,7 +707,7 @@
         <v>3.819</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8785474799999999</v>
+        <v>0.879</v>
       </c>
       <c r="U4" t="n">
         <v>2.965</v>
@@ -719,10 +719,10 @@
         <v>3.961</v>
       </c>
       <c r="X4" t="n">
-        <v>-3.780037291429834</v>
+        <v>-1.711960715720723</v>
       </c>
       <c r="Y4" t="n">
-        <v>-1.69435128776941</v>
+        <v>0.530197434178993</v>
       </c>
     </row>
     <row r="5">
@@ -774,7 +774,7 @@
         <v>3.246</v>
       </c>
       <c r="P5" t="n">
-        <v>1.185551056666667</v>
+        <v>1.186</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>
@@ -786,7 +786,7 @@
         <v>2.268</v>
       </c>
       <c r="T5" t="n">
-        <v>1.091645156666667</v>
+        <v>1.092</v>
       </c>
       <c r="U5" t="n">
         <v>3.453</v>
@@ -798,10 +798,10 @@
         <v>3.731</v>
       </c>
       <c r="X5" t="n">
-        <v>-3.065073687763594</v>
+        <v>-2.320086996300248</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.50202971028157</v>
+        <v>0.8613567289284285</v>
       </c>
     </row>
     <row r="6">
@@ -820,7 +820,7 @@
         <v>3.356</v>
       </c>
       <c r="E6" t="n">
-        <v>0.48875</v>
+        <v>0.489</v>
       </c>
       <c r="F6" t="n">
         <v>3.552</v>
@@ -853,7 +853,7 @@
         <v>3.41</v>
       </c>
       <c r="P6" t="n">
-        <v>1.565114356666667</v>
+        <v>1.565</v>
       </c>
       <c r="Q6" t="n">
         <v>4.994</v>
@@ -865,7 +865,7 @@
         <v>3.99</v>
       </c>
       <c r="T6" t="n">
-        <v>1.600193166666666</v>
+        <v>1.6</v>
       </c>
       <c r="U6" t="n">
         <v>2.112</v>
@@ -877,10 +877,10 @@
         <v>1.271</v>
       </c>
       <c r="X6" t="n">
-        <v>0.3357987076140396</v>
+        <v>-1.974911323053717</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.848918779582756</v>
+        <v>1.41846634271769</v>
       </c>
     </row>
     <row r="7">
@@ -892,74 +892,74 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Patient 12</t>
+          <t>Patient 11</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.211</v>
+        <v>3.855</v>
       </c>
       <c r="E7" t="n">
-        <v>1.885</v>
+        <v>3.746</v>
       </c>
       <c r="F7" t="n">
+        <v>2.799</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.845</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.642</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.867</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.487</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.884</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.696</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.446</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.144</v>
+      </c>
+      <c r="O7" t="n">
         <v>2.793</v>
       </c>
-      <c r="G7" t="n">
-        <v>2.711</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.532</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.741</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.195</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.117</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.724</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.524</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2.76</v>
-      </c>
       <c r="P7" t="n">
-        <v>1.31019479</v>
+        <v>1.344</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.048</v>
+        <v>3.073</v>
       </c>
       <c r="R7" t="n">
-        <v>1.917</v>
+        <v>4.233</v>
       </c>
       <c r="S7" t="n">
-        <v>2.567</v>
+        <v>3.166</v>
       </c>
       <c r="T7" t="n">
-        <v>1.023109486666667</v>
+        <v>1.062</v>
       </c>
       <c r="U7" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3.047</v>
+      </c>
+      <c r="W7" t="n">
         <v>3.025</v>
       </c>
-      <c r="V7" t="n">
-        <v>2.498</v>
-      </c>
-      <c r="W7" t="n">
-        <v>3.351</v>
-      </c>
       <c r="X7" t="n">
-        <v>-0.4664459011992461</v>
+        <v>-2.250648380246629</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.1116238378127484</v>
+        <v>1.602056494980947</v>
       </c>
     </row>
     <row r="8">
@@ -971,74 +971,74 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Patient 14</t>
+          <t>Patient 12</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.72</v>
+        <v>1.211</v>
       </c>
       <c r="E8" t="n">
-        <v>3.241</v>
+        <v>1.885</v>
       </c>
       <c r="F8" t="n">
-        <v>3.624</v>
+        <v>2.793</v>
       </c>
       <c r="G8" t="n">
-        <v>3.689</v>
+        <v>2.711</v>
       </c>
       <c r="H8" t="n">
-        <v>1.094</v>
+        <v>0.532</v>
       </c>
       <c r="I8" t="n">
-        <v>0.37</v>
+        <v>5.741</v>
       </c>
       <c r="J8" t="n">
-        <v>1.242</v>
+        <v>4.195</v>
       </c>
       <c r="K8" t="n">
-        <v>1.314</v>
+        <v>5.117</v>
       </c>
       <c r="L8" t="n">
-        <v>0.546</v>
+        <v>1.724</v>
       </c>
       <c r="M8" t="n">
-        <v>2.501</v>
+        <v>0.004</v>
       </c>
       <c r="N8" t="n">
-        <v>1.284</v>
+        <v>3.524</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>2.76</v>
       </c>
       <c r="P8" t="n">
-        <v>1.292901773333333</v>
+        <v>1.31</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.333</v>
+        <v>2.048</v>
       </c>
       <c r="R8" t="n">
-        <v>3.909</v>
+        <v>1.917</v>
       </c>
       <c r="S8" t="n">
-        <v>4.871</v>
+        <v>2.567</v>
       </c>
       <c r="T8" t="n">
-        <v>1.299880546666667</v>
+        <v>1.023</v>
       </c>
       <c r="U8" t="n">
-        <v>2.717</v>
+        <v>3.025</v>
       </c>
       <c r="V8" t="n">
-        <v>2.479</v>
+        <v>2.498</v>
       </c>
       <c r="W8" t="n">
-        <v>2.726</v>
+        <v>3.351</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.1548600524439385</v>
+        <v>-2.162886792353279</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.6546225761546944</v>
+        <v>-1.133347248750434</v>
       </c>
     </row>
     <row r="9">
@@ -1050,74 +1050,74 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Patient 19</t>
+          <t>Patient 14</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.228918841028229</v>
+        <v>0.72</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>3.241</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>3.624</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>3.689</v>
       </c>
       <c r="H9" t="n">
-        <v>1.264149430665982</v>
+        <v>1.094</v>
       </c>
       <c r="I9" t="n">
-        <v>1.612</v>
+        <v>0.37</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>1.242</v>
       </c>
       <c r="K9" t="n">
-        <v>1.675</v>
+        <v>1.314</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7137112287769679</v>
+        <v>0.546</v>
       </c>
       <c r="M9" t="n">
-        <v>1.322</v>
+        <v>2.501</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>1.284</v>
       </c>
       <c r="O9" t="n">
-        <v>5.466</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>5.905845975768873</v>
+        <v>1.293</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.828</v>
+        <v>2.333</v>
       </c>
       <c r="R9" t="n">
-        <v>1.841</v>
+        <v>3.909</v>
       </c>
       <c r="S9" t="n">
-        <v>3.318</v>
+        <v>4.871</v>
       </c>
       <c r="T9" t="n">
-        <v>1.048361218211884</v>
+        <v>1.3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.903</v>
+        <v>2.717</v>
       </c>
       <c r="V9" t="n">
-        <v>4.163</v>
+        <v>2.479</v>
       </c>
       <c r="W9" t="n">
-        <v>4.645</v>
+        <v>2.726</v>
       </c>
       <c r="X9" t="n">
-        <v>-1.227678087094526</v>
+        <v>-2.079302603351559</v>
       </c>
       <c r="Y9" t="n">
-        <v>-2.718283582999344</v>
+        <v>-1.328808368433285</v>
       </c>
     </row>
     <row r="10">
@@ -1129,74 +1129,74 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Patient 20</t>
+          <t>Patient 15</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.069</v>
+        <v>0.962</v>
       </c>
       <c r="E10" t="n">
-        <v>0.055</v>
+        <v>3.366</v>
       </c>
       <c r="F10" t="n">
-        <v>1.066</v>
+        <v>3.667</v>
       </c>
       <c r="G10" t="n">
-        <v>0.431</v>
+        <v>3.812</v>
       </c>
       <c r="H10" t="n">
-        <v>1.157</v>
+        <v>1.867</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001</v>
+        <v>2.465</v>
       </c>
       <c r="J10" t="n">
-        <v>0.249</v>
+        <v>5.136</v>
       </c>
       <c r="K10" t="n">
-        <v>0.097</v>
+        <v>3.046</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8</v>
+        <v>0.584</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>3.479</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.647</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>3.852</v>
       </c>
       <c r="P10" t="n">
-        <v>6</v>
+        <v>2.266</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.646</v>
+        <v>1.161</v>
       </c>
       <c r="R10" t="n">
-        <v>0.607</v>
+        <v>3.315</v>
       </c>
       <c r="S10" t="n">
-        <v>0.442</v>
+        <v>3.11</v>
       </c>
       <c r="T10" t="n">
-        <v>1.132</v>
+        <v>2.168</v>
       </c>
       <c r="U10" t="n">
-        <v>2.907</v>
+        <v>1.826</v>
       </c>
       <c r="V10" t="n">
-        <v>0.358</v>
+        <v>3.141</v>
       </c>
       <c r="W10" t="n">
-        <v>0.434</v>
+        <v>3.252</v>
       </c>
       <c r="X10" t="n">
-        <v>3.343775856319775</v>
+        <v>-1.082843776998607</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.153609676355406</v>
+        <v>-0.5351706494656938</v>
       </c>
     </row>
     <row r="11">
@@ -1208,74 +1208,74 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Patient 22</t>
+          <t>Patient 18</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.7992133250023588</v>
+        <v>2.057</v>
       </c>
       <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.186</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.033</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.245</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="M11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="n">
+      <c r="N11" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="n">
+      <c r="O11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="n">
-        <v>1.194023515528223</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.038</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.129558645045372</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.285</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.979</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.632</v>
-      </c>
       <c r="P11" t="n">
-        <v>2.881203404903991</v>
+        <v>5.932</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.668</v>
+        <v>6</v>
       </c>
       <c r="R11" t="n">
-        <v>2.07</v>
+        <v>1.676</v>
       </c>
       <c r="S11" t="n">
-        <v>1.382</v>
+        <v>2.474</v>
       </c>
       <c r="T11" t="n">
-        <v>1.056740164531804</v>
+        <v>1.044</v>
       </c>
       <c r="U11" t="n">
-        <v>2.099</v>
+        <v>6</v>
       </c>
       <c r="V11" t="n">
-        <v>2.402</v>
+        <v>2.533</v>
       </c>
       <c r="W11" t="n">
-        <v>1.783</v>
+        <v>1.369</v>
       </c>
       <c r="X11" t="n">
-        <v>2.984450772407791</v>
+        <v>2.446756685733973</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.9433295948612944</v>
+        <v>-0.008090378883258234</v>
       </c>
     </row>
     <row r="12">
@@ -1287,74 +1287,74 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Patient 24</t>
+          <t>Patient 19</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.7973238859592273</v>
+        <v>1.229</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9622098695768528</v>
+        <v>1.264</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.612</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1.675</v>
       </c>
       <c r="L12" t="n">
-        <v>1.224</v>
+        <v>0.714</v>
       </c>
       <c r="M12" t="n">
-        <v>1.151</v>
+        <v>1.322</v>
       </c>
       <c r="N12" t="n">
-        <v>1.189</v>
+        <v>6</v>
       </c>
       <c r="O12" t="n">
-        <v>0.956</v>
+        <v>5.466</v>
       </c>
       <c r="P12" t="n">
-        <v>3.102778815258804</v>
+        <v>5.906</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.559</v>
+        <v>2.828</v>
       </c>
       <c r="R12" t="n">
-        <v>2.218</v>
+        <v>1.841</v>
       </c>
       <c r="S12" t="n">
-        <v>1.174</v>
+        <v>3.318</v>
       </c>
       <c r="T12" t="n">
-        <v>1.167878170181079</v>
+        <v>1.048</v>
       </c>
       <c r="U12" t="n">
-        <v>3.712</v>
+        <v>1.903</v>
       </c>
       <c r="V12" t="n">
-        <v>2.55</v>
+        <v>4.163</v>
       </c>
       <c r="W12" t="n">
-        <v>1.932</v>
+        <v>4.645</v>
       </c>
       <c r="X12" t="n">
-        <v>1.581128967354242</v>
+        <v>2.480772993987627</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.435083575711818</v>
+        <v>-0.6878230100073091</v>
       </c>
     </row>
     <row r="13">
@@ -1366,74 +1366,74 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Patient 25</t>
+          <t>Patient 24</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.193575668766375</v>
+        <v>0.797</v>
       </c>
       <c r="E13" t="n">
-        <v>0.747</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.279</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.677</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.11282801934343</v>
+        <v>0.962</v>
       </c>
       <c r="I13" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.177</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.038905474693055</v>
+        <v>1.224</v>
       </c>
       <c r="M13" t="n">
-        <v>0.116</v>
+        <v>1.151</v>
       </c>
       <c r="N13" t="n">
-        <v>0.435</v>
+        <v>1.189</v>
       </c>
       <c r="O13" t="n">
-        <v>0.437</v>
+        <v>0.956</v>
       </c>
       <c r="P13" t="n">
-        <v>1.759561638927562</v>
+        <v>3.103</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.063</v>
+        <v>2.559</v>
       </c>
       <c r="R13" t="n">
-        <v>0.402</v>
+        <v>2.218</v>
       </c>
       <c r="S13" t="n">
-        <v>0.265</v>
+        <v>1.174</v>
       </c>
       <c r="T13" t="n">
-        <v>1.252</v>
+        <v>1.168</v>
       </c>
       <c r="U13" t="n">
-        <v>3.424</v>
+        <v>3.712</v>
       </c>
       <c r="V13" t="n">
-        <v>4.144</v>
+        <v>2.55</v>
       </c>
       <c r="W13" t="n">
-        <v>4.433</v>
+        <v>1.932</v>
       </c>
       <c r="X13" t="n">
-        <v>3.013021628414423</v>
+        <v>-0.3146054196006707</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.722139252744187</v>
+        <v>-1.20587700191385</v>
       </c>
     </row>
     <row r="14">
@@ -1461,7 +1461,7 @@
         <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>2.743380213284606</v>
+        <v>2.743</v>
       </c>
       <c r="I14" t="n">
         <v>0.363</v>
@@ -1485,7 +1485,7 @@
         <v>6</v>
       </c>
       <c r="P14" t="n">
-        <v>5.341454956565838</v>
+        <v>5.341</v>
       </c>
       <c r="Q14" t="n">
         <v>2.402</v>
@@ -1497,7 +1497,7 @@
         <v>4.217</v>
       </c>
       <c r="T14" t="n">
-        <v>1.995454095314051</v>
+        <v>1.995</v>
       </c>
       <c r="U14" t="n">
         <v>2.992</v>
@@ -1509,10 +1509,10 @@
         <v>3.556</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.5322291198584109</v>
+        <v>1.97628291656144</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.075647206325383</v>
+        <v>0.2438280810736381</v>
       </c>
     </row>
     <row r="15">
@@ -1576,7 +1576,7 @@
         <v>5.99</v>
       </c>
       <c r="T15" t="n">
-        <v>1.555475617996773</v>
+        <v>1.555</v>
       </c>
       <c r="U15" t="n">
         <v>6</v>
@@ -1588,10 +1588,10 @@
         <v>6</v>
       </c>
       <c r="X15" t="n">
-        <v>-4.737193186894143</v>
+        <v>2.576511828432646</v>
       </c>
       <c r="Y15" t="n">
-        <v>-2.542322109642476</v>
+        <v>-0.8106933098441657</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.7581242047301611</v>
+        <v>0.758</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.069119149100801</v>
+        <v>1.069</v>
       </c>
       <c r="I16" t="n">
         <v>3.241</v>
@@ -1631,7 +1631,7 @@
         <v>1.515</v>
       </c>
       <c r="L16" t="n">
-        <v>1.090104386044177</v>
+        <v>1.09</v>
       </c>
       <c r="M16" t="n">
         <v>6</v>
@@ -1655,7 +1655,7 @@
         <v>6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.332741226437475</v>
+        <v>1.333</v>
       </c>
       <c r="U16" t="n">
         <v>6</v>
@@ -1667,10 +1667,10 @@
         <v>3.068</v>
       </c>
       <c r="X16" t="n">
-        <v>-4.599548412119792</v>
+        <v>2.587529540897851</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.660939387573786</v>
+        <v>-1.077230661263932</v>
       </c>
     </row>
     <row r="17">
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3.355628454347811</v>
+        <v>3.356</v>
       </c>
       <c r="E17" t="n">
         <v>6</v>
@@ -1698,7 +1698,7 @@
         <v>2.432</v>
       </c>
       <c r="H17" t="n">
-        <v>1.112828019343434</v>
+        <v>1.113</v>
       </c>
       <c r="I17" t="n">
         <v>0.782</v>
@@ -1746,10 +1746,10 @@
         <v>2.906</v>
       </c>
       <c r="X17" t="n">
-        <v>-1.630297237493976</v>
+        <v>2.427923607903676</v>
       </c>
       <c r="Y17" t="n">
-        <v>-4.399564532938566</v>
+        <v>0.9676525924122718</v>
       </c>
     </row>
     <row r="18">
@@ -1825,10 +1825,10 @@
         <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>0.1758843633274385</v>
+        <v>2.481173736746806</v>
       </c>
       <c r="Y18" t="n">
-        <v>-1.662661071966728</v>
+        <v>0.5205858867247872</v>
       </c>
     </row>
     <row r="19">
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.325647379301919</v>
+        <v>1.326</v>
       </c>
       <c r="E19" t="n">
         <v>2.256</v>
@@ -1856,7 +1856,7 @@
         <v>1.19</v>
       </c>
       <c r="H19" t="n">
-        <v>2.607637123819547</v>
+        <v>2.608</v>
       </c>
       <c r="I19" t="n">
         <v>2.202</v>
@@ -1904,10 +1904,10 @@
         <v>6</v>
       </c>
       <c r="X19" t="n">
-        <v>-2.452432110359671</v>
+        <v>2.596816689126233</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.4811928172063517</v>
+        <v>0.2280652859409486</v>
       </c>
     </row>
     <row r="20">
@@ -1959,7 +1959,7 @@
         <v>1.867</v>
       </c>
       <c r="P20" t="n">
-        <v>2.021016263333333</v>
+        <v>2.021</v>
       </c>
       <c r="Q20" t="n">
         <v>0.346</v>
@@ -1971,7 +1971,7 @@
         <v>1.355</v>
       </c>
       <c r="T20" t="n">
-        <v>1.237090606666667</v>
+        <v>1.237</v>
       </c>
       <c r="U20" t="n">
         <v>1.29</v>
@@ -1983,10 +1983,10 @@
         <v>1.463</v>
       </c>
       <c r="X20" t="n">
-        <v>2.706408307802715</v>
+        <v>-1.433408132427079</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.3108944553099131</v>
+        <v>-0.4542217834892136</v>
       </c>
     </row>
     <row r="21">
@@ -2038,7 +2038,7 @@
         <v>1.634</v>
       </c>
       <c r="P21" t="n">
-        <v>2.91112733</v>
+        <v>2.911</v>
       </c>
       <c r="Q21" t="n">
         <v>0.424</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>1.90143797288489</v>
+        <v>-0.6175571152337294</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.5762373811798093</v>
+        <v>0.5064581007077888</v>
       </c>
     </row>
     <row r="22">
@@ -2117,7 +2117,7 @@
         <v>1.68</v>
       </c>
       <c r="P22" t="n">
-        <v>1.442569536666667</v>
+        <v>1.443</v>
       </c>
       <c r="Q22" t="n">
         <v>0.106</v>
@@ -2129,7 +2129,7 @@
         <v>1.813</v>
       </c>
       <c r="T22" t="n">
-        <v>1.214936306666667</v>
+        <v>1.215</v>
       </c>
       <c r="U22" t="n">
         <v>1.456</v>
@@ -2141,10 +2141,10 @@
         <v>1.552</v>
       </c>
       <c r="X22" t="n">
-        <v>3.446231052172147</v>
+        <v>-1.926541116838632</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.5541388694626752</v>
+        <v>-0.2614993915857424</v>
       </c>
     </row>
     <row r="23">
@@ -2156,74 +2156,74 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Patient 6</t>
+          <t>Patient 13</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.272</v>
+        <v>1.591</v>
       </c>
       <c r="E23" t="n">
-        <v>1.622</v>
+        <v>0.056</v>
       </c>
       <c r="F23" t="n">
-        <v>1.214</v>
+        <v>0.289</v>
       </c>
       <c r="G23" t="n">
-        <v>0.582</v>
+        <v>0.115</v>
       </c>
       <c r="H23" t="n">
-        <v>1.524</v>
+        <v>1.732</v>
       </c>
       <c r="I23" t="n">
-        <v>1.557</v>
+        <v>0.126</v>
       </c>
       <c r="J23" t="n">
-        <v>1.753</v>
+        <v>0.597</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.182</v>
       </c>
       <c r="L23" t="n">
-        <v>1.348</v>
+        <v>1.017</v>
       </c>
       <c r="M23" t="n">
-        <v>6</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="N23" t="n">
-        <v>3.039</v>
+        <v>0.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.628</v>
+        <v>0.183</v>
       </c>
       <c r="P23" t="n">
-        <v>1.895</v>
+        <v>1.369</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.284</v>
+        <v>0.02</v>
       </c>
       <c r="R23" t="n">
-        <v>0.613</v>
+        <v>0.109</v>
       </c>
       <c r="S23" t="n">
-        <v>1.094</v>
+        <v>0.106</v>
       </c>
       <c r="T23" t="n">
-        <v>1.585659593333333</v>
+        <v>2.072</v>
       </c>
       <c r="U23" t="n">
-        <v>1.295</v>
+        <v>0.003</v>
       </c>
       <c r="V23" t="n">
-        <v>1.469</v>
+        <v>0.044</v>
       </c>
       <c r="W23" t="n">
-        <v>1.444</v>
+        <v>0.028</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.4281276463996966</v>
+        <v>-2.038169663376213</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.418209846806208</v>
+        <v>-0.09581004645950904</v>
       </c>
     </row>
     <row r="24">
@@ -2235,74 +2235,74 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Patient 13</t>
+          <t>Patient 16</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.591</v>
+        <v>1.141</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05575</v>
+        <v>1.567</v>
       </c>
       <c r="F24" t="n">
-        <v>0.289</v>
+        <v>1.563</v>
       </c>
       <c r="G24" t="n">
-        <v>0.115</v>
+        <v>1.169</v>
       </c>
       <c r="H24" t="n">
-        <v>1.732</v>
+        <v>1.031</v>
       </c>
       <c r="I24" t="n">
-        <v>0.12625</v>
+        <v>0.857</v>
       </c>
       <c r="J24" t="n">
-        <v>0.597</v>
+        <v>1.696</v>
       </c>
       <c r="K24" t="n">
-        <v>0.182</v>
+        <v>0.575</v>
       </c>
       <c r="L24" t="n">
-        <v>1.017</v>
+        <v>0.858</v>
       </c>
       <c r="M24" t="n">
-        <v>0.07099999999999999</v>
+        <v>1.112</v>
       </c>
       <c r="N24" t="n">
-        <v>0.3995</v>
+        <v>1.375</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1825</v>
+        <v>1.361</v>
       </c>
       <c r="P24" t="n">
-        <v>1.369239096666667</v>
+        <v>1.969</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01975</v>
+        <v>0.211</v>
       </c>
       <c r="R24" t="n">
-        <v>0.109</v>
+        <v>1.01</v>
       </c>
       <c r="S24" t="n">
-        <v>0.106</v>
+        <v>1.035</v>
       </c>
       <c r="T24" t="n">
-        <v>2.071802336666666</v>
+        <v>1.614</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0025</v>
+        <v>1.21</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0435</v>
+        <v>1.429</v>
       </c>
       <c r="W24" t="n">
-        <v>0.028</v>
+        <v>1.523</v>
       </c>
       <c r="X24" t="n">
-        <v>4.823167016802464</v>
+        <v>-1.438172153053549</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.2351362123520383</v>
+        <v>-0.9226091947529572</v>
       </c>
     </row>
     <row r="25">
@@ -2314,74 +2314,74 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Patient 16</t>
+          <t>Patient 21</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.141</v>
+        <v>0.852</v>
       </c>
       <c r="E25" t="n">
-        <v>1.567</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.563</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.169</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.031</v>
+        <v>1.14</v>
       </c>
       <c r="I25" t="n">
-        <v>0.857</v>
+        <v>1.108</v>
       </c>
       <c r="J25" t="n">
-        <v>1.696</v>
+        <v>1.034</v>
       </c>
       <c r="K25" t="n">
-        <v>0.575</v>
+        <v>0.697</v>
       </c>
       <c r="L25" t="n">
-        <v>0.858</v>
+        <v>0.825</v>
       </c>
       <c r="M25" t="n">
-        <v>1.112</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.375</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.361</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.969142</v>
+        <v>5.889</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.211</v>
+        <v>0.308</v>
       </c>
       <c r="R25" t="n">
-        <v>1.01</v>
+        <v>0.656</v>
       </c>
       <c r="S25" t="n">
-        <v>1.035</v>
+        <v>0.729</v>
       </c>
       <c r="T25" t="n">
-        <v>1.613960303333333</v>
+        <v>1.3</v>
       </c>
       <c r="U25" t="n">
-        <v>1.21</v>
+        <v>2.257</v>
       </c>
       <c r="V25" t="n">
-        <v>1.429</v>
+        <v>1.18</v>
       </c>
       <c r="W25" t="n">
-        <v>1.523</v>
+        <v>2.609</v>
       </c>
       <c r="X25" t="n">
-        <v>2.728661313488408</v>
+        <v>2.483583402535778</v>
       </c>
       <c r="Y25" t="n">
-        <v>-0.631195105047956</v>
+        <v>-1.007990312629137</v>
       </c>
     </row>
   </sheetData>
